--- a/ArendseeExperiment/20220816_AR_Dryweight.xlsx
+++ b/ArendseeExperiment/20220816_AR_Dryweight.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuppevelt\Nextcloud\Documents\DATA\Arendsee_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuppevelt\Nextcloud\Documents\DATA\Code\PhD_thesis\ArendseeExperiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78C9574-5945-4DD0-B9D2-51B71BEDF118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521C6B65-C4C2-4CFD-A2E5-7DF3D2DAC222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,13 +46,13 @@
     <t>Ash</t>
   </si>
   <si>
-    <t>depth</t>
-  </si>
-  <si>
     <t>Porosity</t>
   </si>
   <si>
     <t>LOI</t>
+  </si>
+  <si>
+    <t>Depth</t>
   </si>
 </sst>
 </file>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -154,8 +154,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,7 +216,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -367,88 +367,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-30</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-35</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-35</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-40</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-40</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-45</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-45</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-50</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-50</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-55</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-55</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-60</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-60</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-65</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-65</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-70</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-70</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -532,7 +532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1163767935"/>
@@ -600,7 +600,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1086320735"/>
@@ -651,7 +651,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -705,7 +705,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -856,88 +856,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-10</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-10</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-30</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-35</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-35</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-40</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-40</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-45</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-45</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-50</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-50</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-55</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-55</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-60</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-60</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-65</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-65</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-70</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-70</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,7 +1021,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1163768767"/>
@@ -1089,7 +1089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1235119119"/>
@@ -1140,7 +1140,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2677,7 +2677,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2713,13 +2713,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2759,8 +2759,7 @@
         <v>0.86587921056536588</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K29" si="5">A2*-5</f>
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2800,8 +2799,7 @@
         <v>0.86560487407430464</v>
       </c>
       <c r="K3">
-        <f t="shared" si="5"/>
-        <v>-5</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2841,8 +2839,7 @@
         <v>0.86019126195387208</v>
       </c>
       <c r="K4">
-        <f t="shared" si="5"/>
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2882,8 +2879,7 @@
         <v>0.86621294477686928</v>
       </c>
       <c r="K5">
-        <f t="shared" si="5"/>
-        <v>-10</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2923,8 +2919,7 @@
         <v>0.86374645541579809</v>
       </c>
       <c r="K6">
-        <f t="shared" si="5"/>
-        <v>-15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2964,8 +2959,7 @@
         <v>0.86340892009560632</v>
       </c>
       <c r="K7">
-        <f t="shared" si="5"/>
-        <v>-15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3005,8 +2999,7 @@
         <v>0.857671951421213</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
-        <v>-20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3046,8 +3039,7 @@
         <v>0.85994282862966309</v>
       </c>
       <c r="K9">
-        <f t="shared" si="5"/>
-        <v>-20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3087,8 +3079,7 @@
         <v>0.85608698438467956</v>
       </c>
       <c r="K10">
-        <f t="shared" si="5"/>
-        <v>-25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3128,8 +3119,7 @@
         <v>0.85730148938045292</v>
       </c>
       <c r="K11">
-        <f t="shared" si="5"/>
-        <v>-25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3169,8 +3159,7 @@
         <v>0.85357616611169762</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
-        <v>-30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3210,8 +3199,7 @@
         <v>0.85549894238316326</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
-        <v>-30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3251,8 +3239,7 @@
         <v>0.85379796755121873</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3292,8 +3279,7 @@
         <v>0.85537629672794302</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
-        <v>-35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3333,8 +3319,7 @@
         <v>0.84937864232683147</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
-        <v>-40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3374,8 +3359,7 @@
         <v>0.84866482897117468</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
-        <v>-40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3415,8 +3399,7 @@
         <v>0.84412163443639754</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
-        <v>-45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3456,8 +3439,7 @@
         <v>0.84847083833836001</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
-        <v>-45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3497,8 +3479,7 @@
         <v>0.84526784253780585</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
-        <v>-50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3538,8 +3519,7 @@
         <v>0.85191538554767254</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
-        <v>-50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,8 +3559,7 @@
         <v>0.84744110778057702</v>
       </c>
       <c r="K22">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3620,8 +3599,7 @@
         <v>0.85055582134916841</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
-        <v>-55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3661,8 +3639,7 @@
         <v>0.8468992778827632</v>
       </c>
       <c r="K24">
-        <f t="shared" si="5"/>
-        <v>-60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3702,8 +3679,7 @@
         <v>0.84357305123249582</v>
       </c>
       <c r="K25">
-        <f t="shared" si="5"/>
-        <v>-60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3743,8 +3719,7 @@
         <v>0.83878606913948872</v>
       </c>
       <c r="K26">
-        <f t="shared" si="5"/>
-        <v>-65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3784,8 +3759,7 @@
         <v>0.83574726170000901</v>
       </c>
       <c r="K27">
-        <f t="shared" si="5"/>
-        <v>-65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3825,8 +3799,7 @@
         <v>0.84595514421428919</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3866,8 +3839,7 @@
         <v>0.84100880244130927</v>
       </c>
       <c r="K29">
-        <f t="shared" si="5"/>
-        <v>-70</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
